--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,9 +230,6 @@
     <t>Vidzeme</t>
   </si>
   <si>
-    <t>Courland</t>
-  </si>
-  <si>
     <t>Latgale</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Coat of arms of Latvia's rising sun</t>
+  </si>
+  <si>
+    <t>Kurzeme</t>
   </si>
 </sst>
 </file>
@@ -486,6 +486,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,12 +515,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -524,10 +524,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -562,8 +562,8 @@
   </autoFilter>
   <tableColumns count="3">
     <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="0" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -838,46 +838,46 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="9" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="9" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="9" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -898,8 +898,8 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>2014</v>
       </c>
       <c r="B3" s="5"/>
@@ -924,8 +924,8 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>2015</v>
       </c>
       <c r="B4" s="5"/>
@@ -940,7 +940,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>7</v>
@@ -950,8 +950,8 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>2015</v>
       </c>
       <c r="B5" s="5"/>
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>7</v>
@@ -976,8 +976,8 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
         <v>2015</v>
       </c>
       <c r="B6" s="5"/>
@@ -1002,8 +1002,8 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
         <v>2016</v>
       </c>
       <c r="B7" s="5"/>
@@ -1021,11 +1021,11 @@
         <v>7</v>
       </c>
       <c r="H7" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1045,18 +1045,18 @@
         <v>7</v>
       </c>
       <c r="H8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="18" t="s">
@@ -1066,21 +1066,21 @@
         <v>7</v>
       </c>
       <c r="G9" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>2017</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="18" t="s">
@@ -1096,13 +1096,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>2018</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="8" t="s">
@@ -1118,15 +1118,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>2018</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="8" t="s">
@@ -1136,21 +1136,21 @@
         <v>24</v>
       </c>
       <c r="G12" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>2019</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="8"/>
@@ -1197,14 +1197,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Kurzeme</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -445,9 +448,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -515,6 +515,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -524,6 +527,14 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -531,14 +542,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,9 +564,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -838,46 +841,44 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="9" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="9" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -890,273 +891,295 @@
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
         <v>2014</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="18">
         <v>0</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7" t="str">
+      <c r="H3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="str">
         <f t="shared" ref="I3:I6" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="20">
         <v>2015</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7" t="str">
+      <c r="H4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
         <v>2015</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="18">
         <v>1</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="str">
+      <c r="H5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
         <v>2015</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7" t="str">
+      <c r="H6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20">
         <v>2016</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="18" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="20">
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="18" t="s">
+      <c r="D8" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20">
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="19">
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="18">
         <v>1</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="H9" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20">
         <v>2017</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="19">
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="18">
         <v>0</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="H10" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20">
         <v>2018</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20">
         <v>2018</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="H12" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20">
         <v>2019</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="D13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1167,7 +1190,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H13">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1197,87 +1220,87 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -492,6 +492,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,9 +518,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -527,14 +527,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -542,6 +534,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,9 +564,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -841,44 +841,44 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="3.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2014</v>
       </c>
@@ -907,7 +907,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -923,11 +923,11 @@
         <v>7</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I6" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="I3:I13" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>2015</v>
       </c>
@@ -935,7 +935,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -955,7 +955,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>2015</v>
       </c>
@@ -963,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -983,7 +983,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>2015</v>
       </c>
@@ -991,7 +991,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -1011,7 +1011,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2016</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1034,8 +1034,12 @@
       <c r="H7" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>2016</v>
       </c>
@@ -1045,7 +1049,7 @@
       <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1058,10 +1062,14 @@
         <v>7</v>
       </c>
       <c r="H8" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>2017</v>
       </c>
@@ -1071,7 +1079,7 @@
       <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -1086,8 +1094,12 @@
       <c r="H9" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>2017</v>
       </c>
@@ -1097,7 +1109,7 @@
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -1107,13 +1119,17 @@
         <v>7</v>
       </c>
       <c r="G10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2018</v>
       </c>
@@ -1121,7 +1137,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1136,8 +1152,12 @@
       <c r="H11" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>2018</v>
       </c>
@@ -1147,7 +1167,7 @@
       <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1157,13 +1177,17 @@
         <v>24</v>
       </c>
       <c r="G12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2019</v>
       </c>
@@ -1173,13 +1197,17 @@
       <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1190,7 +1218,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1220,14 +1248,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -1238,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1249,7 +1277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1271,7 +1299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1282,7 +1310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1293,7 +1321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>307.000</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,31 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -534,14 +561,6 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,9 +583,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="5"/>
+    <tableColumn id="2" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -841,7 +860,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I13"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1176,11 +1195,11 @@
       <c r="F12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="18">
         <v>2</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>7</v>
       </c>
       <c r="I12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1200,10 +1219,18 @@
       <c r="D13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
       <c r="I13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1217,12 +1244,46 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H13">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="G3:H11 H12">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H13">
+  <conditionalFormatting sqref="G3:H11 H12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:H13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1245,7 +1306,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>307.000</t>
+  </si>
+  <si>
+    <t>Ceramic of Latgale</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,24 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -553,15 +573,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -583,9 +594,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="5"/>
-    <tableColumn id="2" name="Link" dataDxfId="4" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="3"/>
+    <tableColumn id="1" name="№" dataDxfId="3"/>
+    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -854,27 +865,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="8" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="8" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -895,7 +906,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
@@ -918,7 +929,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>2014</v>
       </c>
@@ -946,7 +957,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>2015</v>
       </c>
@@ -974,7 +985,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>2015</v>
       </c>
@@ -1002,7 +1013,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>2015</v>
       </c>
@@ -1030,7 +1041,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>2016</v>
       </c>
@@ -1058,7 +1069,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>2016</v>
       </c>
@@ -1088,7 +1099,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>2017</v>
       </c>
@@ -1118,7 +1129,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>2017</v>
       </c>
@@ -1148,7 +1159,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>2018</v>
       </c>
@@ -1176,7 +1187,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>2018</v>
       </c>
@@ -1206,7 +1217,7 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2019</v>
       </c>
@@ -1233,6 +1244,32 @@
       </c>
       <c r="I13" s="6" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" ref="I14" si="1">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-"),AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1245,11 +1282,28 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:H11 H12">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11 H12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1261,12 +1315,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+  <conditionalFormatting sqref="G13:H13">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G13:H13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1278,12 +1332,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
+  <conditionalFormatting sqref="G14:H14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1309,14 +1363,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
@@ -1327,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1338,7 +1392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1349,7 +1403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1360,7 +1414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1371,7 +1425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1382,7 +1436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>6</v>
       </c>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C304CFF-5322-49F4-BF94-D2A5179ABCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +26,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Илюшин Алексей</author>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{353C4EC3-9D0F-4086-BBE3-546332E42A4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Koninklijke Nederlandse Munt
+(Netherlands mint(Utrecht))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -103,12 +120,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{D0586513-4B23-4DD6-87E2-31F881C55861}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Koninklijke Nederlandse Munt
+(Netherlands mint(Utrecht))</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
   <si>
     <t>Year</t>
   </si>
@@ -252,12 +285,18 @@
   </si>
   <si>
     <t>Ceramic of Latgale</t>
+  </si>
+  <si>
+    <t>412.000</t>
+  </si>
+  <si>
+    <t>NL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,16 +340,16 @@
       <charset val="204"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -360,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -438,13 +477,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -457,9 +514,6 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -477,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,19 +573,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -539,15 +602,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -573,6 +627,31 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -587,16 +666,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="3"/>
-    <tableColumn id="2" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -864,51 +943,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="36.54296875" style="8" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.85546875" style="7" customWidth="1"/>
+    <col min="5" max="7" width="12.42578125" style="7" customWidth="1"/>
+    <col min="8" max="10" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -921,355 +1002,435 @@
       <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
+      <c r="J2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2014</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="17">
         <v>0</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I13" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="I3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="31" t="str">
+        <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18">
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="17">
         <v>1</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="str">
+      <c r="I4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="31" t="str">
+        <f t="shared" ref="K4:K13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>2015</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="21" t="s">
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="6" t="str">
+      <c r="E6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="21" t="s">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="6" t="str">
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>2016</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="21" t="s">
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="E8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="17">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>Can exchange</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="17">
         <v>1</v>
       </c>
-      <c r="I7" s="6" t="str">
+      <c r="I9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="E10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="17">
         <v>2</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="J12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="17">
         <v>1</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6" t="str">
+      <c r="K13" s="31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="18">
-        <v>2</v>
-      </c>
-      <c r="I12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Can exchange</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>2020</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="17">
         <v>0</v>
       </c>
-      <c r="I14" s="6" t="str">
-        <f t="shared" ref="I14" si="1">IF(OR(AND(G14&gt;1,G14&lt;&gt;"-"),AND(H14&gt;1,H14&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="J14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="31" t="str">
+        <f>IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -1278,15 +1439,49 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:H11 H12">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+  <conditionalFormatting sqref="I12 H3:J3 H4:I11 J4:J12 J14">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H11 H12">
+  <conditionalFormatting sqref="H3:J3 I12 H4:I11 J4:J12 J14">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1298,12 +1493,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="H14:I14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1315,12 +1510,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:H13">
+  <conditionalFormatting sqref="J13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1332,12 +1527,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+  <conditionalFormatting sqref="I13">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:H14">
+  <conditionalFormatting sqref="I13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1356,105 +1551,105 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="13">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="13">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="13">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="13">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="13">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Latvia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C304CFF-5322-49F4-BF94-D2A5179ABCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CD0B73-E842-4669-96E8-6A875722D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -141,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="57">
   <si>
     <t>Year</t>
   </si>
@@ -291,6 +300,27 @@
   </si>
   <si>
     <t>NL</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Recognition of the Republic of Latvia</t>
+  </si>
+  <si>
+    <t>Financial Literacy</t>
+  </si>
+  <si>
+    <t>408.000</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>308.000</t>
+  </si>
+  <si>
+    <t>415.000</t>
+  </si>
+  <si>
+    <t>Ukraine Sunflower</t>
   </si>
 </sst>
 </file>
@@ -555,6 +585,9 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,26 +600,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -594,7 +624,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -644,13 +683,100 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,9 +799,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="7" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -944,52 +1070,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="7" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" style="7" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" style="7" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" style="7" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="30"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1142,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>2014</v>
       </c>
@@ -1045,12 +1171,12 @@
       <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="31" t="str">
+      <c r="K3" s="21" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2015</v>
       </c>
@@ -1079,12 +1205,12 @@
       <c r="J4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="31" t="str">
+      <c r="K4" s="21" t="str">
         <f t="shared" ref="K4:K13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>2015</v>
       </c>
@@ -1113,12 +1239,12 @@
       <c r="J5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="31" t="str">
+      <c r="K5" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>2015</v>
       </c>
@@ -1139,7 +1265,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>7</v>
@@ -1147,12 +1273,12 @@
       <c r="J6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="31" t="str">
+      <c r="K6" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>2016</v>
       </c>
@@ -1181,12 +1307,12 @@
       <c r="J7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="31" t="str">
+      <c r="K7" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2016</v>
       </c>
@@ -1217,12 +1343,12 @@
       <c r="J8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="31" t="str">
+      <c r="K8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>2017</v>
       </c>
@@ -1253,12 +1379,12 @@
       <c r="J9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="31" t="str">
+      <c r="K9" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>2017</v>
       </c>
@@ -1289,12 +1415,12 @@
       <c r="J10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="31" t="str">
+      <c r="K10" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>2018</v>
       </c>
@@ -1323,12 +1449,12 @@
       <c r="J11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="31" t="str">
+      <c r="K11" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>2018</v>
       </c>
@@ -1359,12 +1485,12 @@
       <c r="J12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="31" t="str">
+      <c r="K12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>2019</v>
       </c>
@@ -1395,12 +1521,12 @@
       <c r="J13" s="17">
         <v>1</v>
       </c>
-      <c r="K13" s="31" t="str">
+      <c r="K13" s="21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>2020</v>
       </c>
@@ -1424,14 +1550,134 @@
         <v>7</v>
       </c>
       <c r="I14" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="31" t="str">
+      <c r="K14" s="21" t="str">
         <f>IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1443,12 +1689,12 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="I12 H3:J3 H4:I11 J4:J12 J14">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:J3 I12 H4:I11 J4:J12 J14">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1460,11 +1706,215 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:I14">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="16" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1476,12 +1926,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
+  <conditionalFormatting sqref="H15">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1493,12 +1943,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1510,12 +1960,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1527,12 +1977,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
+  <conditionalFormatting sqref="I18">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1558,14 +2008,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1587,7 +2037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1598,7 +2048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1609,7 +2059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1620,7 +2070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1631,7 +2081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Latvia/#EURO#Latvia#Commemorative#[2014-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Latvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CD0B73-E842-4669-96E8-6A875722D96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0999F65C-221E-462A-AF3D-F8FCC9D362EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3860" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>Ukraine Sunflower</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
       <c r="H1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="28"/>
@@ -1117,28 +1117,28 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -1147,29 +1147,29 @@
         <v>2014</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="17">
         <v>0</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="21" t="str">
         <f>IF(OR(AND(H3&gt;1,H3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
@@ -1181,29 +1181,29 @@
         <v>2015</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="17">
         <v>1</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" s="21" t="str">
         <f t="shared" ref="K4:K13" si="0">IF(OR(AND(H4&gt;1,H4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
@@ -1215,29 +1215,29 @@
         <v>2015</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="17">
         <v>1</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1249,29 +1249,29 @@
         <v>2015</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="17">
         <v>1</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1283,29 +1283,29 @@
         <v>2016</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="17">
         <v>1</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1317,31 +1317,31 @@
         <v>2016</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="17">
         <v>2</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1353,31 +1353,31 @@
         <v>2017</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="17">
         <v>1</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1389,31 +1389,31 @@
         <v>2017</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" s="17">
         <v>1</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1425,29 +1425,29 @@
         <v>2018</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="17">
         <v>1</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1459,31 +1459,31 @@
         <v>2018</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="17">
         <v>2</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1495,28 +1495,28 @@
         <v>2019</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="H13" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="17">
         <v>1</v>
@@ -1531,29 +1531,29 @@
         <v>2020</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="17">
         <v>1</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" s="21" t="str">
         <f>IF(OR(AND(H14&gt;1,H14&lt;&gt;"-"),AND(I14&gt;1,I14&lt;&gt;"-"),AND(J14&gt;1,J14&lt;&gt;"-")),"Can exchange","")</f>
@@ -1565,29 +1565,29 @@
         <v>2021</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H15" s="17">
         <v>1</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1595,29 +1595,29 @@
         <v>2022</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="17">
         <v>0</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1625,29 +1625,29 @@
         <v>2022</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="17">
         <v>0</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1655,29 +1655,29 @@
         <v>2023</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="17">
         <v>0</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2017,13 +2017,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2031,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2042,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2053,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2064,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2075,10 +2075,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2086,10 +2086,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
